--- a/Input_links_wet_sounds.xlsx
+++ b/Input_links_wet_sounds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daugu\OneDrive\Documentos\GitHub\agendamento_teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5EFA2E-2582-46A3-A308-803005A86E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8B9094-5F23-4FA1-B65B-B64F7F9C6702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="200">
   <si>
     <t>Link</t>
   </si>
@@ -48,6 +48,594 @@
   </si>
   <si>
     <t>https://shop.wetsounds.com/zero-8-xz-b/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/zero-6-xz-w/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/zero-6-xz-b/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/recon-8-bg-rgb/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/recon-6-bg-rgb-wet-sounds-high-output-component-style-6-5-marine-coaxial-speakers/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-cx-10-sw-w/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-8-XS-B-SS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-8-XS-G-SS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-8-XS-W-SS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-8-XS-S/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-8-SW-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-8-SW-W/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-8-XW-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-6-XW-W-RGB/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-6-S-RGB/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-8-XW-W-RGB/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-8-S-RGB/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-5-S/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-6-S/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-6-BG/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-6-XW-W/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-6-XW-W/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-6-XS-W-SS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-6-SW-W/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-6-XS-S/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-6-XS-G-SS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-6-XW-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-6-XS-B-SS-V3/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-6-SW-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-CX-10-SW-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-CX-10-XS-S/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-CX-10-XW-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-CX-10-XW-W/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-CX-10-XS-B-SS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-CX-10-XS-G-SS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-CX-10-XS-W-SS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-10-hd-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-10-hd-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-12-hd-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev8-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-8-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev10-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev10-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-410-b-v2-wet-sounds-revolution-series-dual-10-black-tower-speaker/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REV-410-White/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/icon-8-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev12-hd-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/recon-6-pod-bg-wet-sounds-6-5-inch-coaxial-tower-speaker-for-tube-diameter-up-to-2-or-surface-mount/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-6-POD-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-6-POD-W/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ICON-8-Black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/WS-MC-5/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ww-bt-dz-wet-sounds-bluetooth-dual-zone-controller/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/WS-420-SQ/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/WW-BT-UR/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/WW-BT-VC-V2/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/WW-BT-RS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/WS-420-BT/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/WS-220-BT/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ws-mc-20-wet-sounds-compact-2-zone-media-receiver-source-unit-with-siriusxm-ready/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/WS-MC-2/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/WS-MC-1/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/Sinister-SDX2/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/Sinister-SDX4/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/sinister-sdx6/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/Sinister-SDX2500/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/SYN-DX2/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/SYN-DX4/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/SYN-DX2.3-HP/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/SYN-DX6/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/HTX-1/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/HTX-2/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/HTX-4/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/HTX-6/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/STX-MICRO-1/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/STX-MICRO-4/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-hp-s4-v3-wet-sounds-revo-series-10-inch-high-power-marine-subwoofer-4-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-fa-s4-v3-wet-sounds-revo-series-10-inch-free-air-marine-subwoofer-4-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/zero-12-s4-xz-w/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/zero-10-s4-xz-w/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/zero-12-s4-xz-b/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/zero-10-s4-xz-b/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-10-BG/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-10-S/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-8-fa-s4-w-wet-sounds-8-free-air-marine-subwoofer/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-fa-s4-w-v2-wet-sounds-12-high-power-marine-subwoofer/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-fa-s2-w-v2-wet-sounds-12-high-power-marine-subwoofer/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-fa-s2-b-v2-wet-sounds-12-high-power-marine-subwoofer/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-fa-s4-b/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-10-XW-W/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-fa-s2-b-wet-sounds-10-free-air-2-ohm-marine-subwoofer/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-fa-s2-w-wet-sounds-10-free-air-2-ohm-marine-subwoofer/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-fa-s4-w-wet-sounds-10-free-air-4-ohm-marine-subwoofer/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-8-fa-wet-sounds-8-free-air-marine-subwoofer-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-12-HP-S4-V3/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-12-XXX-V4-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-15-XXX-V4-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/5x7-hlcd-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/wet-sounds-revolution-series-6x9-hlcd-with-surface-mountable-roto-mold-enclosure-grill-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/wet-sounds-revolution-series-6x9-hlcd-with-surface-mountable-roto-mold-enclosure-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REV-696-RS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/venue-series-shallow-mount-6-5-ceiling-speaker/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/adp-rev-hd-x-w-wet-sounds-white-x-kit-for-rev-hd-speaker-systems/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/adp-rev-hd-x-b-wet-sounds-black-x-kit-for-rev-hd-speaker-systems/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/adp-malibu-g5-g-wet-sounds-brushed-tower-speaker-brackets-for-the-malibu-g5-g-tower/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-NAU-FCTA/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/adp-tc3-sxm-wet-sounds-stainless-steel-swivel-surface-mount-no-clamp-w-hardware/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/wet-sounds-tower-speaker-brackets-for-the-upper-brackets-for-nautique-g-tower/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/adp-tc3-s-wet-sounds-silver-aluminum-clamp-for-tube-diameter-1-7-8-to-3/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-TC3-F/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-TC3-F-MINI/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-TC3-S/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-TC3-S-MINI/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-Illusion-DXT/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-REV-X-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-REV-X-W/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-Gladiator-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-Gladiator-P/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-Malibu-G3-Single-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-Malibu-G3-Single-P/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-MC-Bracket-11/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-Nautique-FC5-U/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-CENTURION-MAXIMUS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-SUPRA-FxONE/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-Nautique-FC5-L/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-Nautique-Z5-Drop-12/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-Malibu-G3-Dual-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/wet-sounds-revo-10-xw-white-subwoofer-grille/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-sw-b-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-sw-w-subwoofer-grille/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-xs-b-ss-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-xs-g-ss-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-xs-s-subwoofer-grille/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-xs-w-ss-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-xw-b-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-xw-w-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-xw-b-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-xs-w-ss-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-xs-s-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-xs-g-ss-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-sw-w-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-sw-b-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-8-fa-xs-b-ss-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-8-fa-xs-g-ss-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-8-fa-xs-w-ss-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-8-fa-xs-s-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-8-fa-xw-b-subwoofer-grille/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-8-fa-xw-w-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-8-fa-sw-w-subwoofer-grille/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-8-fa-sw-b-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-12-hd-xs-w-grille-wet-sounds-rev-12-hd-xs-grille-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-12-hd-xw-b-grille-wet-sounds-rev-12-hd-xw-grille-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-12-hd-xw-w-grille-wet-sounds-rev-12-hd-xw-grille-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-12-hd-xz-w-grille-wet-sounds-rev-12-hd-xz-grille-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-12-hd-xz-b-grille-wet-sounds-rev-12-hd-xz-grille-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-12-hd-xs-b-grille-wet-sounds-rev-12-hd-xs-grille-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-10-hd-xz-b-grille-wet-sounds-rev-10-hd-xz-grille-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-10-hd-xz-w-grille-wet-sounds-rev-10-hd-xz-grille-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-10-hd-xw-w-grille-wet-sounds-rev-10-hd-xs-grille-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-10-hd-xw-b-grille-wet-sounds-rev-10-hd-xs-grille-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-10-hd-xs-w-grille-wet-sounds-rev-10-hd-xs-grille-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-10-hd-xz-grille/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-pse/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/STEALTH-AS-8/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/STEALTH-AS-6/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/STEALTH-AS-10/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ar-5-defender-max/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/zero-12-enc-wet-sounds-zero-series-12-rotomold-enclosure/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ar-amp-2ch/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/stealth-xt-12-b/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/stealth-xt-8-b/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/stealth-xt-6-b/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ar-5-ranger-crew/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/stealth-hd-remote-replacement/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/stealth-10-core-w/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/stealth-10-white-ultra-hd-soundbar/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/stealth-6-ultra-hd-w/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ST-ADP-RND-1.5/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ST-ADP-RND-1.75/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ST-ADP-SQ-.75/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ST-ADP-SQ-1.0/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ST-ADP-SQ-1.25/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/st-adp-rnd-2-0-t-wet-sounds-stealth-clamp-for-2-tube/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ST-ADP-SLIDER-BRACKET/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/stealth-6-surge-b-soundbar/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/stealth-10-surge-b-soundbar/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/gc-amp-kit-wet-sounds-golf-cart-amp-wiring-kit-for-stx-micro-4/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/golf-cart-harness/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/wet-sounds-venueseries-1200w-4-channel-amplifier/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/venue-series-ls-pro-package/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/venue-series-110v-1200-watt-4-channel-amplifier/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/venue-series-landscape-in-ground-12-subwoofer/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/venue-series-landscape-ground-spike/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/venue-series-6x9-black-hlcd-outdoor-speaker/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/venue-series-6x9-white-hlcd-outdoor-speaker/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/venue-series-8-white-hlcd-outdoor-speaker/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/venue-series-8-black-hlcd-outdoor-speaker/</t>
   </si>
 </sst>
 </file>
@@ -399,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="D298" sqref="D298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,6 +1018,1501 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Input_links_wet_sounds.xlsx
+++ b/Input_links_wet_sounds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a340c10a28ad0c64/Documentos/GitHub/agendamento_teste/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5B8B9094-5F23-4FA1-B65B-B64F7F9C6702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E835B12-5EEC-48DC-A974-E6349BB0D6F7}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5B8B9094-5F23-4FA1-B65B-B64F7F9C6702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EBA7279-4FC6-48D2-976B-263DFCB76012}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="200">
   <si>
     <t>Link</t>
   </si>
@@ -45,6 +45,597 @@
   </si>
   <si>
     <t>https://shop.wetsounds.com/zero-8-xz-w/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ICON-8-Black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/zero-8-xz-b/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/zero-6-xz-w/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/zero-6-xz-b/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/recon-8-bg-rgb/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/recon-6-bg-rgb-wet-sounds-high-output-component-style-6-5-marine-coaxial-speakers/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-cx-10-sw-w/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-8-XS-B-SS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-8-XS-G-SS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-8-XS-W-SS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-8-XS-S/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-8-SW-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-8-SW-W/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-8-XW-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-6-XW-W-RGB/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-6-S-RGB/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-8-XW-W-RGB/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-8-S-RGB/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-5-S/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-6-S/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-6-BG/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-6-XW-W/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-6-XW-W/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-6-XS-W-SS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-6-SW-W/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-6-XS-S/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-6-XS-G-SS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-6-XW-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-6-XS-B-SS-V3/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-6-SW-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-CX-10-SW-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-CX-10-XS-S/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-CX-10-XW-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-CX-10-XW-W/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-CX-10-XS-B-SS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-CX-10-XS-G-SS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-CX-10-XS-W-SS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-10-hd-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-10-hd-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-12-hd-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev8-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-8-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev10-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev10-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-410-b-v2-wet-sounds-revolution-series-dual-10-black-tower-speaker/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REV-410-White/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/icon-8-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev12-hd-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/recon-6-pod-bg-wet-sounds-6-5-inch-coaxial-tower-speaker-for-tube-diameter-up-to-2-or-surface-mount/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-6-POD-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-6-POD-W/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/WS-MC-5/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ww-bt-dz-wet-sounds-bluetooth-dual-zone-controller/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/WS-420-SQ/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/WW-BT-UR/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/WW-BT-VC-V2/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/WW-BT-RS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/WS-420-BT/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/WS-220-BT/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ws-mc-20-wet-sounds-compact-2-zone-media-receiver-source-unit-with-siriusxm-ready/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/WS-MC-2/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/WS-MC-1/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/Sinister-SDX2/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/Sinister-SDX4/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/sinister-sdx6/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/Sinister-SDX2500/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/SYN-DX2/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/SYN-DX4/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/SYN-DX2.3-HP/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/SYN-DX6/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/HTX-1/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/HTX-2/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/HTX-4/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/HTX-6/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/STX-MICRO-1/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/STX-MICRO-4/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-hp-s4-v3-wet-sounds-revo-series-10-inch-high-power-marine-subwoofer-4-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-fa-s4-v3-wet-sounds-revo-series-10-inch-free-air-marine-subwoofer-4-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/zero-12-s4-xz-w/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/zero-10-s4-xz-w/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/zero-12-s4-xz-b/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/zero-10-s4-xz-b/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-10-BG/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-10-S/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-8-fa-s4-w-wet-sounds-8-free-air-marine-subwoofer/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-fa-s4-w-v2-wet-sounds-12-high-power-marine-subwoofer/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-fa-s2-w-v2-wet-sounds-12-high-power-marine-subwoofer/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-fa-s2-b-v2-wet-sounds-12-high-power-marine-subwoofer/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-fa-s4-b/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/RECON-10-XW-W/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-fa-s2-b-wet-sounds-10-free-air-2-ohm-marine-subwoofer/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-fa-s2-w-wet-sounds-10-free-air-2-ohm-marine-subwoofer/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-fa-s4-w-wet-sounds-10-free-air-4-ohm-marine-subwoofer/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-8-fa-wet-sounds-8-free-air-marine-subwoofer-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-12-HP-S4-V3/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-12-XXX-V4-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REVO-15-XXX-V4-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/5x7-hlcd-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/wet-sounds-revolution-series-6x9-hlcd-with-surface-mountable-roto-mold-enclosure-grill-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/wet-sounds-revolution-series-6x9-hlcd-with-surface-mountable-roto-mold-enclosure-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/REV-696-RS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/venue-series-shallow-mount-6-5-ceiling-speaker/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/adp-rev-hd-x-w-wet-sounds-white-x-kit-for-rev-hd-speaker-systems/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/adp-rev-hd-x-b-wet-sounds-black-x-kit-for-rev-hd-speaker-systems/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/adp-malibu-g5-g-wet-sounds-brushed-tower-speaker-brackets-for-the-malibu-g5-g-tower/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-NAU-FCTA/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/adp-tc3-sxm-wet-sounds-stainless-steel-swivel-surface-mount-no-clamp-w-hardware/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/wet-sounds-tower-speaker-brackets-for-the-upper-brackets-for-nautique-g-tower/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/adp-tc3-s-wet-sounds-silver-aluminum-clamp-for-tube-diameter-1-7-8-to-3/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-TC3-F/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-TC3-F-MINI/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-TC3-S/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-TC3-S-MINI/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-Illusion-DXT/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-REV-X-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-REV-X-W/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-Gladiator-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-Gladiator-P/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-Malibu-G3-Single-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-Malibu-G3-Single-P/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-MC-Bracket-11/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-Nautique-FC5-U/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-CENTURION-MAXIMUS/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-SUPRA-FxONE/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-Nautique-FC5-L/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-Nautique-Z5-Drop-12/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ADP-Malibu-G3-Dual-B/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/wet-sounds-revo-10-xw-white-subwoofer-grille/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-sw-b-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-sw-w-subwoofer-grille/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-xs-b-ss-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-xs-g-ss-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-xs-s-subwoofer-grille/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-xs-w-ss-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-xw-b-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-xw-w-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-xw-b-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-xs-w-ss-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-xs-s-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-xs-g-ss-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-sw-w-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-10-sw-b-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-8-fa-xs-b-ss-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-8-fa-xs-g-ss-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-8-fa-xs-w-ss-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-8-fa-xs-s-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-8-fa-xw-b-subwoofer-grille/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-8-fa-xw-w-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-8-fa-sw-w-subwoofer-grille/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-8-fa-sw-b-subwoofer-grill/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-12-hd-xs-w-grille-wet-sounds-rev-12-hd-xs-grille-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-12-hd-xw-b-grille-wet-sounds-rev-12-hd-xw-grille-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-12-hd-xw-w-grille-wet-sounds-rev-12-hd-xw-grille-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-12-hd-xz-w-grille-wet-sounds-rev-12-hd-xz-grille-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-12-hd-xz-b-grille-wet-sounds-rev-12-hd-xz-grille-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-12-hd-xs-b-grille-wet-sounds-rev-12-hd-xs-grille-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-10-hd-xz-b-grille-wet-sounds-rev-10-hd-xz-grille-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-10-hd-xz-w-grille-wet-sounds-rev-10-hd-xz-grille-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-10-hd-xw-w-grille-wet-sounds-rev-10-hd-xs-grille-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-10-hd-xw-b-grille-wet-sounds-rev-10-hd-xs-grille-black/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-10-hd-xs-w-grille-wet-sounds-rev-10-hd-xs-grille-white/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/rev-10-hd-xz-grille/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/revo-12-pse/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/STEALTH-AS-8/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/STEALTH-AS-6/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/STEALTH-AS-10/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ar-5-defender-max/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/zero-12-enc-wet-sounds-zero-series-12-rotomold-enclosure/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ar-amp-2ch/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/stealth-xt-12-b/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/stealth-xt-8-b/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/stealth-xt-6-b/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ar-5-ranger-crew/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/stealth-hd-remote-replacement/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/stealth-10-core-w/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/stealth-10-white-ultra-hd-soundbar/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/stealth-6-ultra-hd-w/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ST-ADP-RND-1.5/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ST-ADP-RND-1.75/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ST-ADP-SQ-.75/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ST-ADP-SQ-1.0/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ST-ADP-SQ-1.25/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/st-adp-rnd-2-0-t-wet-sounds-stealth-clamp-for-2-tube/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/ST-ADP-SLIDER-BRACKET/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/stealth-6-surge-b-soundbar/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/stealth-10-surge-b-soundbar/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/gc-amp-kit-wet-sounds-golf-cart-amp-wiring-kit-for-stx-micro-4/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/golf-cart-harness/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/wet-sounds-venueseries-1200w-4-channel-amplifier/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/venue-series-ls-pro-package/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/venue-series-110v-1200-watt-4-channel-amplifier/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/venue-series-landscape-in-ground-12-subwoofer/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/venue-series-landscape-ground-spike/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/venue-series-6x9-black-hlcd-outdoor-speaker/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/venue-series-6x9-white-hlcd-outdoor-speaker/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/venue-series-8-white-hlcd-outdoor-speaker/</t>
+  </si>
+  <si>
+    <t>https://shop.wetsounds.com/venue-series-8-black-hlcd-outdoor-speaker/</t>
   </si>
 </sst>
 </file>
@@ -131,6 +722,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:A303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,12 +1009,1512 @@
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
